--- a/data/trans_orig/P14A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BA3D1D-8B1A-4EC9-A564-1F411CEC42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F56EB634-A1BF-4ACC-BBB9-7334AE1302B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96EFE840-D718-4C4C-BBD7-0C1E075520E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4468B7C7-6527-4327-94B6-28CA7224BB79}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>69,58%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>30,42%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,16 +138,16 @@
     <t>74,57%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>34,1%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -156,19 +156,19 @@
     <t>75,6%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -177,16 +177,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>64,15%</t>
+    <t>65,9%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,7 +201,7 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>28,96%</t>
+    <t>29,12%</t>
   </si>
   <si>
     <t>63,88%</t>
@@ -216,61 +216,61 @@
     <t>27,6%</t>
   </si>
   <si>
-    <t>71,04%</t>
+    <t>70,88%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -285,19 +285,19 @@
     <t>82,19%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -306,67 +306,67 @@
     <t>17,81%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>60,61%</t>
+    <t>59,63%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>39,39%</t>
+    <t>40,37%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -390,55 +390,55 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35435C5-AE9F-41B0-84DD-888CE31E7252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7978C9CB-62A2-44E8-8ED9-43321B5C0F11}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1601,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D69C90-8B5D-44D3-9609-56E8F2AE4C3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7467CEF-3AEF-44C7-81A1-BA78C37ED034}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F56EB634-A1BF-4ACC-BBB9-7334AE1302B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092283AC-611A-49D8-99AC-7CD9A1FDD13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4468B7C7-6527-4327-94B6-28CA7224BB79}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83979E42-5B1D-4894-B76A-D890026C6575}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>69,58%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>30,42%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,16 +138,16 @@
     <t>74,57%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>34,1%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -156,19 +156,19 @@
     <t>75,6%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -177,16 +177,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>65,9%</t>
+    <t>64,15%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,7 +201,7 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>29,12%</t>
+    <t>28,09%</t>
   </si>
   <si>
     <t>63,88%</t>
@@ -216,67 +216,67 @@
     <t>27,6%</t>
   </si>
   <si>
-    <t>70,88%</t>
+    <t>71,91%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por úlcera de estómago en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población que recibe medicación o terapia por úlcera de estómago en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -285,19 +285,19 @@
     <t>82,19%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -306,19 +306,19 @@
     <t>17,81%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>40,28%</t>
@@ -333,16 +333,16 @@
     <t>87,12%</t>
   </si>
   <si>
-    <t>59,63%</t>
+    <t>59,91%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>59,72%</t>
@@ -357,16 +357,16 @@
     <t>12,88%</t>
   </si>
   <si>
-    <t>40,37%</t>
+    <t>40,09%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -390,7 +390,7 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>33,38%</t>
+    <t>32,28%</t>
   </si>
   <si>
     <t>88,23%</t>
@@ -399,19 +399,19 @@
     <t>85,53%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>33,31%</t>
@@ -420,25 +420,25 @@
     <t>11,77%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>67,72%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7978C9CB-62A2-44E8-8ED9-43321B5C0F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42C18CF-81C6-4947-BCF4-DCA6CCE62109}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1601,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7467CEF-3AEF-44C7-81A1-BA78C37ED034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A6255F-8739-4559-B8A3-5C370043D5A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
